--- a/ml_all/output/nn300300.xlsx
+++ b/ml_all/output/nn300300.xlsx
@@ -423,75 +423,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>288</v>
+        <v>12393</v>
       </c>
       <c r="B1" t="n">
-        <v>10498</v>
+        <v>1691</v>
       </c>
       <c r="C1" t="n">
-        <v>3392</v>
+        <v>258</v>
       </c>
       <c r="D1" t="n">
-        <v>432</v>
+        <v>287</v>
       </c>
       <c r="E1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>500</v>
+        <v>10634</v>
       </c>
       <c r="B2" t="n">
-        <v>9678</v>
+        <v>2477</v>
       </c>
       <c r="C2" t="n">
-        <v>1858</v>
+        <v>274</v>
       </c>
       <c r="D2" t="n">
-        <v>2374</v>
+        <v>1234</v>
       </c>
       <c r="E2" t="n">
-        <v>229</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>527</v>
+        <v>9553</v>
       </c>
       <c r="B3" t="n">
-        <v>3928</v>
+        <v>841</v>
       </c>
       <c r="C3" t="n">
-        <v>2329</v>
+        <v>535</v>
       </c>
       <c r="D3" t="n">
-        <v>7588</v>
+        <v>3693</v>
       </c>
       <c r="E3" t="n">
-        <v>267</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>178</v>
+        <v>4168</v>
       </c>
       <c r="B4" t="n">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>13575</v>
+        <v>10283</v>
       </c>
       <c r="E4" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>3635</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>14639</v>
+        <v>11004</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -508,84 +508,84 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6158</v>
       </c>
       <c r="B7" t="n">
-        <v>7434</v>
+        <v>3233</v>
       </c>
       <c r="C7" t="n">
-        <v>820</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>312</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
-        <v>970</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>198</v>
+        <v>6235</v>
       </c>
       <c r="B8" t="n">
-        <v>5379</v>
+        <v>2288</v>
       </c>
       <c r="C8" t="n">
-        <v>1777</v>
+        <v>463</v>
       </c>
       <c r="D8" t="n">
-        <v>1804</v>
+        <v>474</v>
       </c>
       <c r="E8" t="n">
-        <v>382</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>203</v>
+        <v>6087</v>
       </c>
       <c r="B9" t="n">
-        <v>3018</v>
+        <v>1094</v>
       </c>
       <c r="C9" t="n">
-        <v>924</v>
+        <v>334</v>
       </c>
       <c r="D9" t="n">
-        <v>4552</v>
+        <v>2005</v>
       </c>
       <c r="E9" t="n">
-        <v>843</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>129</v>
+        <v>1024</v>
       </c>
       <c r="B10" t="n">
-        <v>199</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>9136</v>
+        <v>8441</v>
       </c>
       <c r="E10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3663</v>
+        <v>4668</v>
       </c>
       <c r="B11" t="n">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4701</v>
+        <v>4872</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
